--- a/VersionRecords/Version 5.0.4.5 20161101/版本Bug和特性计划及评审表v5.0.4.5.xlsx
+++ b/VersionRecords/Version 5.0.4.5 20161101/版本Bug和特性计划及评审表v5.0.4.5.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>No</t>
   </si>
@@ -163,12 +163,70 @@
     <t>优化代码未上线</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>afka升级</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>sho'yjin'rying'shousuan'ftiao'zh</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东APP、房东PC、BS(sync)、官网、租客APP</t>
+    <rPh sb="0" eb="1">
+      <t>fang'dong</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <rPh sb="0" eb="1">
+      <t>y'b'q</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <rPh sb="0" eb="1">
+      <t>jie'bao'z</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <rPh sb="0" eb="1">
+      <t>shi'chao</t>
+    </rPh>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -324,8 +382,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +419,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,6 +789,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1101,7 +1184,7 @@
   <dimension ref="A1:V180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q7"/>
+      <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1195,19 +1278,41 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="39"/>
+    <row r="2" spans="1:22" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="73">
+        <v>42671</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="73">
+        <v>42671</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="M2" s="61"/>
       <c r="N2" s="61"/>
       <c r="O2" s="39"/>
